--- a/stock_historical_data/1wk/DIVISLAB.NS.xlsx
+++ b/stock_historical_data/1wk/DIVISLAB.NS.xlsx
@@ -62573,7 +62573,9 @@
       <c r="Q1109" t="n">
         <v>0</v>
       </c>
-      <c r="R1109" t="inlineStr"/>
+      <c r="R1109" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/DIVISLAB.NS.xlsx
+++ b/stock_historical_data/1wk/DIVISLAB.NS.xlsx
@@ -59297,7 +59297,9 @@
       <c r="P1110" t="n">
         <v>0</v>
       </c>
-      <c r="Q1110" t="inlineStr"/>
+      <c r="Q1110" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/DIVISLAB.NS.xlsx
+++ b/stock_historical_data/1wk/DIVISLAB.NS.xlsx
@@ -62685,7 +62685,9 @@
       <c r="Q1111" t="n">
         <v>0</v>
       </c>
-      <c r="R1111" t="inlineStr"/>
+      <c r="R1111" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/DIVISLAB.NS.xlsx
+++ b/stock_historical_data/1wk/DIVISLAB.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1111"/>
+  <dimension ref="A1:R1113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62689,6 +62689,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1112">
+      <c r="A1112" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>4588.60009765625</v>
+      </c>
+      <c r="C1112" t="n">
+        <v>4588.60009765625</v>
+      </c>
+      <c r="D1112" t="n">
+        <v>4439.7001953125</v>
+      </c>
+      <c r="E1112" t="n">
+        <v>4522.14990234375</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>4522.14990234375</v>
+      </c>
+      <c r="G1112" t="n">
+        <v>1460733</v>
+      </c>
+      <c r="H1112" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1112" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1112" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1112" t="inlineStr"/>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>4512.60009765625</v>
+      </c>
+      <c r="C1113" t="n">
+        <v>4648.4501953125</v>
+      </c>
+      <c r="D1113" t="n">
+        <v>4488.0498046875</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>4596.4501953125</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>4596.4501953125</v>
+      </c>
+      <c r="G1113" t="n">
+        <v>1668327</v>
+      </c>
+      <c r="H1113" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1113" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1113" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1113" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/DIVISLAB.NS.xlsx
+++ b/stock_historical_data/1wk/DIVISLAB.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1113"/>
+  <dimension ref="A1:R1122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3771,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -62741,7 +62741,9 @@
       <c r="Q1112" t="n">
         <v>0</v>
       </c>
-      <c r="R1112" t="inlineStr"/>
+      <c r="R1112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1113">
       <c r="A1113" s="2" t="n">
@@ -62795,7 +62797,495 @@
       <c r="Q1113" t="n">
         <v>0</v>
       </c>
-      <c r="R1113" t="inlineStr"/>
+      <c r="R1113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>4596.4501953125</v>
+      </c>
+      <c r="C1114" t="n">
+        <v>4670</v>
+      </c>
+      <c r="D1114" t="n">
+        <v>4505</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>4629.7001953125</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>4601.4580078125</v>
+      </c>
+      <c r="G1114" t="n">
+        <v>2868085</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1114" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1114" t="inlineStr"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>4629.39990234375</v>
+      </c>
+      <c r="C1115" t="n">
+        <v>4660</v>
+      </c>
+      <c r="D1115" t="n">
+        <v>4445</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>4539.2998046875</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>4511.609375</v>
+      </c>
+      <c r="G1115" t="n">
+        <v>3429771</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1115" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1115" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1115" t="inlineStr"/>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>4542</v>
+      </c>
+      <c r="C1116" t="n">
+        <v>4604.35009765625</v>
+      </c>
+      <c r="D1116" t="n">
+        <v>4496.4501953125</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>4519.7998046875</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>4492.22802734375</v>
+      </c>
+      <c r="G1116" t="n">
+        <v>1594933</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1116" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1116" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1116" t="inlineStr"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>4500</v>
+      </c>
+      <c r="C1117" t="n">
+        <v>4810</v>
+      </c>
+      <c r="D1117" t="n">
+        <v>4395.2998046875</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>4790.60009765625</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>4761.37646484375</v>
+      </c>
+      <c r="G1117" t="n">
+        <v>2695417</v>
+      </c>
+      <c r="H1117" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1117" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1117" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1117" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1117" t="inlineStr"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>4804</v>
+      </c>
+      <c r="C1118" t="n">
+        <v>5010</v>
+      </c>
+      <c r="D1118" t="n">
+        <v>4771.7001953125</v>
+      </c>
+      <c r="E1118" t="n">
+        <v>4991.25</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>4960.80224609375</v>
+      </c>
+      <c r="G1118" t="n">
+        <v>4152891</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1118" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1118" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1118" t="inlineStr"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>4933.5498046875</v>
+      </c>
+      <c r="C1119" t="n">
+        <v>5024.85009765625</v>
+      </c>
+      <c r="D1119" t="n">
+        <v>4778</v>
+      </c>
+      <c r="E1119" t="n">
+        <v>4829.9501953125</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>4829.9501953125</v>
+      </c>
+      <c r="G1119" t="n">
+        <v>3388803</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1119" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1119" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1119" t="inlineStr"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>4828.9501953125</v>
+      </c>
+      <c r="C1120" t="n">
+        <v>4919.9501953125</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>4623.2998046875</v>
+      </c>
+      <c r="E1120" t="n">
+        <v>4633.89990234375</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>4633.89990234375</v>
+      </c>
+      <c r="G1120" t="n">
+        <v>1887044</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1120" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1120" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1120" t="inlineStr"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>4665</v>
+      </c>
+      <c r="C1121" t="n">
+        <v>4963.35009765625</v>
+      </c>
+      <c r="D1121" t="n">
+        <v>4615.5498046875</v>
+      </c>
+      <c r="E1121" t="n">
+        <v>4855.9501953125</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>4855.9501953125</v>
+      </c>
+      <c r="G1121" t="n">
+        <v>2760586</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1121" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1121" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1121" t="inlineStr"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>4860</v>
+      </c>
+      <c r="C1122" t="n">
+        <v>5132.5</v>
+      </c>
+      <c r="D1122" t="n">
+        <v>4858.9501953125</v>
+      </c>
+      <c r="E1122" t="n">
+        <v>5093.89990234375</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>5093.89990234375</v>
+      </c>
+      <c r="G1122" t="n">
+        <v>2936431</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1122" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1122" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1122" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/DIVISLAB.NS.xlsx
+++ b/stock_historical_data/1wk/DIVISLAB.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1122"/>
+  <dimension ref="A1:R1152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5000,13 +5000,13 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
       </c>
       <c r="R81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -5448,13 +5448,13 @@
         <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q89" t="n">
         <v>2</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -8422,7 +8422,7 @@
         <v>2</v>
       </c>
       <c r="R142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -8590,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="R145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -9486,7 +9486,7 @@
         <v>2</v>
       </c>
       <c r="R161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -9654,7 +9654,7 @@
         <v>1</v>
       </c>
       <c r="R164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -9878,7 +9878,7 @@
         <v>2</v>
       </c>
       <c r="R168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -10382,7 +10382,7 @@
         <v>1</v>
       </c>
       <c r="R177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -11782,7 +11782,7 @@
         <v>2</v>
       </c>
       <c r="R202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -11894,7 +11894,7 @@
         <v>1</v>
       </c>
       <c r="R204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -12342,7 +12342,7 @@
         <v>2</v>
       </c>
       <c r="R212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -12566,7 +12566,7 @@
         <v>1</v>
       </c>
       <c r="R216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -13686,7 +13686,7 @@
         <v>2</v>
       </c>
       <c r="R236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237">
@@ -13910,7 +13910,7 @@
         <v>1</v>
       </c>
       <c r="R240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -14974,7 +14974,7 @@
         <v>2</v>
       </c>
       <c r="R259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260">
@@ -15142,7 +15142,7 @@
         <v>1</v>
       </c>
       <c r="R262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -15534,7 +15534,7 @@
         <v>1</v>
       </c>
       <c r="R269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -16318,7 +16318,7 @@
         <v>2</v>
       </c>
       <c r="R283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284">
@@ -16430,7 +16430,7 @@
         <v>1</v>
       </c>
       <c r="R285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -16766,7 +16766,7 @@
         <v>2</v>
       </c>
       <c r="R291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292">
@@ -17382,7 +17382,7 @@
         <v>1</v>
       </c>
       <c r="R302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -17886,7 +17886,7 @@
         <v>2</v>
       </c>
       <c r="R311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -18614,7 +18614,7 @@
         <v>1</v>
       </c>
       <c r="R324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -19174,7 +19174,7 @@
         <v>2</v>
       </c>
       <c r="R334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335">
@@ -19566,7 +19566,7 @@
         <v>2</v>
       </c>
       <c r="R341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342">
@@ -19678,7 +19678,7 @@
         <v>1</v>
       </c>
       <c r="R343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -20350,7 +20350,7 @@
         <v>1</v>
       </c>
       <c r="R355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -21358,7 +21358,7 @@
         <v>1</v>
       </c>
       <c r="R373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -21638,7 +21638,7 @@
         <v>2</v>
       </c>
       <c r="R378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379">
@@ -22422,7 +22422,7 @@
         <v>2</v>
       </c>
       <c r="R392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393">
@@ -22870,7 +22870,7 @@
         <v>2</v>
       </c>
       <c r="R400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401">
@@ -23318,7 +23318,7 @@
         <v>2</v>
       </c>
       <c r="R408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409">
@@ -23542,7 +23542,7 @@
         <v>1</v>
       </c>
       <c r="R412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -23766,7 +23766,7 @@
         <v>2</v>
       </c>
       <c r="R416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417">
@@ -24214,7 +24214,7 @@
         <v>1</v>
       </c>
       <c r="R424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -24494,7 +24494,7 @@
         <v>2</v>
       </c>
       <c r="R429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430">
@@ -25390,7 +25390,7 @@
         <v>2</v>
       </c>
       <c r="R445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446">
@@ -25614,7 +25614,7 @@
         <v>1</v>
       </c>
       <c r="R449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -26174,7 +26174,7 @@
         <v>2</v>
       </c>
       <c r="R459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460">
@@ -26846,7 +26846,7 @@
         <v>2</v>
       </c>
       <c r="R471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472">
@@ -28526,7 +28526,7 @@
         <v>2</v>
       </c>
       <c r="R501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502">
@@ -28806,7 +28806,7 @@
         <v>1</v>
       </c>
       <c r="R506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -29310,7 +29310,7 @@
         <v>2</v>
       </c>
       <c r="R515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516">
@@ -30206,7 +30206,7 @@
         <v>1</v>
       </c>
       <c r="R531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
@@ -30654,7 +30654,7 @@
         <v>2</v>
       </c>
       <c r="R539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540">
@@ -31102,7 +31102,7 @@
         <v>2</v>
       </c>
       <c r="R547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548">
@@ -31998,7 +31998,7 @@
         <v>1</v>
       </c>
       <c r="R563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
@@ -33006,7 +33006,7 @@
         <v>2</v>
       </c>
       <c r="R581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582">
@@ -33230,7 +33230,7 @@
         <v>1</v>
       </c>
       <c r="R585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -33678,7 +33678,7 @@
         <v>1</v>
       </c>
       <c r="R593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
@@ -34014,7 +34014,7 @@
         <v>2</v>
       </c>
       <c r="R599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600">
@@ -34910,7 +34910,7 @@
         <v>2</v>
       </c>
       <c r="R615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616">
@@ -35302,7 +35302,7 @@
         <v>1</v>
       </c>
       <c r="R622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623">
@@ -35750,7 +35750,7 @@
         <v>1</v>
       </c>
       <c r="R630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631">
@@ -36198,7 +36198,7 @@
         <v>2</v>
       </c>
       <c r="R638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639">
@@ -36422,7 +36422,7 @@
         <v>1</v>
       </c>
       <c r="R642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643">
@@ -36814,7 +36814,7 @@
         <v>1</v>
       </c>
       <c r="R649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
@@ -37262,7 +37262,7 @@
         <v>2</v>
       </c>
       <c r="R657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658">
@@ -37878,7 +37878,7 @@
         <v>2</v>
       </c>
       <c r="R668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669">
@@ -38326,7 +38326,7 @@
         <v>2</v>
       </c>
       <c r="R676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677">
@@ -38830,7 +38830,7 @@
         <v>1</v>
       </c>
       <c r="R685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
@@ -39222,7 +39222,7 @@
         <v>2</v>
       </c>
       <c r="R692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693">
@@ -40230,7 +40230,7 @@
         <v>2</v>
       </c>
       <c r="R710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711">
@@ -41462,7 +41462,7 @@
         <v>1</v>
       </c>
       <c r="R732" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733">
@@ -41910,7 +41910,7 @@
         <v>2</v>
       </c>
       <c r="R740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741">
@@ -42470,7 +42470,7 @@
         <v>1</v>
       </c>
       <c r="R750" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751">
@@ -42862,7 +42862,7 @@
         <v>2</v>
       </c>
       <c r="R757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758">
@@ -43030,7 +43030,7 @@
         <v>1</v>
       </c>
       <c r="R760" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761">
@@ -43366,7 +43366,7 @@
         <v>2</v>
       </c>
       <c r="R766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767">
@@ -43702,7 +43702,7 @@
         <v>2</v>
       </c>
       <c r="R772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773">
@@ -44150,7 +44150,7 @@
         <v>2</v>
       </c>
       <c r="R780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781">
@@ -44486,7 +44486,7 @@
         <v>1</v>
       </c>
       <c r="R786" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787">
@@ -45214,7 +45214,7 @@
         <v>2</v>
       </c>
       <c r="R799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800">
@@ -45606,7 +45606,7 @@
         <v>1</v>
       </c>
       <c r="R806" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807">
@@ -46558,7 +46558,7 @@
         <v>1</v>
       </c>
       <c r="R823" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824">
@@ -46782,7 +46782,7 @@
         <v>2</v>
       </c>
       <c r="R827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828">
@@ -47790,7 +47790,7 @@
         <v>2</v>
       </c>
       <c r="R845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846">
@@ -48406,7 +48406,7 @@
         <v>1</v>
       </c>
       <c r="R856" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857">
@@ -48910,7 +48910,7 @@
         <v>1</v>
       </c>
       <c r="R865" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866">
@@ -50590,7 +50590,7 @@
         <v>1</v>
       </c>
       <c r="R895" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896">
@@ -50926,7 +50926,7 @@
         <v>2</v>
       </c>
       <c r="R901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902">
@@ -51262,7 +51262,7 @@
         <v>2</v>
       </c>
       <c r="R907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908">
@@ -51486,7 +51486,7 @@
         <v>1</v>
       </c>
       <c r="R911" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912">
@@ -52102,7 +52102,7 @@
         <v>2</v>
       </c>
       <c r="R922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923">
@@ -52158,7 +52158,7 @@
         <v>1</v>
       </c>
       <c r="R923" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924">
@@ -52998,7 +52998,7 @@
         <v>2</v>
       </c>
       <c r="R938" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939">
@@ -53222,7 +53222,7 @@
         <v>1</v>
       </c>
       <c r="R942" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943">
@@ -53558,7 +53558,7 @@
         <v>1</v>
       </c>
       <c r="R948" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949">
@@ -55126,7 +55126,7 @@
         <v>1</v>
       </c>
       <c r="R976" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="977">
@@ -55294,7 +55294,7 @@
         <v>2</v>
       </c>
       <c r="R979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980">
@@ -56078,7 +56078,7 @@
         <v>1</v>
       </c>
       <c r="R993" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994">
@@ -56806,7 +56806,7 @@
         <v>2</v>
       </c>
       <c r="R1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1007">
@@ -57030,7 +57030,7 @@
         <v>1</v>
       </c>
       <c r="R1010" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1011">
@@ -57646,7 +57646,7 @@
         <v>2</v>
       </c>
       <c r="R1021" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022">
@@ -57758,7 +57758,7 @@
         <v>1</v>
       </c>
       <c r="R1023" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024">
@@ -58318,7 +58318,7 @@
         <v>2</v>
       </c>
       <c r="R1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1034">
@@ -58430,7 +58430,7 @@
         <v>1</v>
       </c>
       <c r="R1035" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036">
@@ -58710,7 +58710,7 @@
         <v>2</v>
       </c>
       <c r="R1040" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1041">
@@ -59382,7 +59382,7 @@
         <v>1</v>
       </c>
       <c r="R1052" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053">
@@ -59942,7 +59942,7 @@
         <v>1</v>
       </c>
       <c r="R1062" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063">
@@ -60726,7 +60726,7 @@
         <v>1</v>
       </c>
       <c r="R1076" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1077">
@@ -60950,7 +60950,7 @@
         <v>2</v>
       </c>
       <c r="R1080" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1081">
@@ -61286,7 +61286,7 @@
         <v>1</v>
       </c>
       <c r="R1086" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1087">
@@ -61734,7 +61734,7 @@
         <v>2</v>
       </c>
       <c r="R1094" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1095">
@@ -62406,7 +62406,7 @@
         <v>1</v>
       </c>
       <c r="R1106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1107">
@@ -62853,7 +62853,9 @@
       <c r="Q1114" t="n">
         <v>0</v>
       </c>
-      <c r="R1114" t="inlineStr"/>
+      <c r="R1114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1115">
       <c r="A1115" s="2" t="n">
@@ -62907,7 +62909,9 @@
       <c r="Q1115" t="n">
         <v>0</v>
       </c>
-      <c r="R1115" t="inlineStr"/>
+      <c r="R1115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1116">
       <c r="A1116" s="2" t="n">
@@ -62961,7 +62965,9 @@
       <c r="Q1116" t="n">
         <v>0</v>
       </c>
-      <c r="R1116" t="inlineStr"/>
+      <c r="R1116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1117">
       <c r="A1117" s="2" t="n">
@@ -63015,7 +63021,9 @@
       <c r="Q1117" t="n">
         <v>0</v>
       </c>
-      <c r="R1117" t="inlineStr"/>
+      <c r="R1117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1118">
       <c r="A1118" s="2" t="n">
@@ -63069,7 +63077,9 @@
       <c r="Q1118" t="n">
         <v>0</v>
       </c>
-      <c r="R1118" t="inlineStr"/>
+      <c r="R1118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1119">
       <c r="A1119" s="2" t="n">
@@ -63123,7 +63133,9 @@
       <c r="Q1119" t="n">
         <v>0</v>
       </c>
-      <c r="R1119" t="inlineStr"/>
+      <c r="R1119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1120">
       <c r="A1120" s="2" t="n">
@@ -63177,7 +63189,9 @@
       <c r="Q1120" t="n">
         <v>0</v>
       </c>
-      <c r="R1120" t="inlineStr"/>
+      <c r="R1120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1121">
       <c r="A1121" s="2" t="n">
@@ -63231,7 +63245,9 @@
       <c r="Q1121" t="n">
         <v>0</v>
       </c>
-      <c r="R1121" t="inlineStr"/>
+      <c r="R1121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1122">
       <c r="A1122" s="2" t="n">
@@ -63285,7 +63301,1569 @@
       <c r="Q1122" t="n">
         <v>0</v>
       </c>
-      <c r="R1122" t="inlineStr"/>
+      <c r="R1122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>5124.7998046875</v>
+      </c>
+      <c r="C1123" t="n">
+        <v>5170</v>
+      </c>
+      <c r="D1123" t="n">
+        <v>5015.25</v>
+      </c>
+      <c r="E1123" t="n">
+        <v>5137.7998046875</v>
+      </c>
+      <c r="F1123" t="inlineStr"/>
+      <c r="G1123" t="n">
+        <v>1722088</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1123" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1123" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1123" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1123" t="inlineStr"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>5105</v>
+      </c>
+      <c r="C1124" t="n">
+        <v>5531.75</v>
+      </c>
+      <c r="D1124" t="n">
+        <v>5082.2001953125</v>
+      </c>
+      <c r="E1124" t="n">
+        <v>5498.64990234375</v>
+      </c>
+      <c r="F1124" t="inlineStr"/>
+      <c r="G1124" t="n">
+        <v>3743803</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1124" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1124" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1124" t="inlineStr"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>5495</v>
+      </c>
+      <c r="C1125" t="n">
+        <v>5560</v>
+      </c>
+      <c r="D1125" t="n">
+        <v>5392.0498046875</v>
+      </c>
+      <c r="E1125" t="n">
+        <v>5450.75</v>
+      </c>
+      <c r="F1125" t="inlineStr"/>
+      <c r="G1125" t="n">
+        <v>1954072</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1125" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1125" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1125" t="inlineStr"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>5490</v>
+      </c>
+      <c r="C1126" t="n">
+        <v>5582.9501953125</v>
+      </c>
+      <c r="D1126" t="n">
+        <v>5292.25</v>
+      </c>
+      <c r="E1126" t="n">
+        <v>5457.89990234375</v>
+      </c>
+      <c r="F1126" t="inlineStr"/>
+      <c r="G1126" t="n">
+        <v>9238947</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1126" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1126" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1126" t="inlineStr"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>5472.9501953125</v>
+      </c>
+      <c r="C1127" t="n">
+        <v>5522.2001953125</v>
+      </c>
+      <c r="D1127" t="n">
+        <v>5241.7001953125</v>
+      </c>
+      <c r="E1127" t="n">
+        <v>5425.5498046875</v>
+      </c>
+      <c r="F1127" t="inlineStr"/>
+      <c r="G1127" t="n">
+        <v>2633943</v>
+      </c>
+      <c r="H1127" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1127" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1127" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1127" t="inlineStr"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>5448</v>
+      </c>
+      <c r="C1128" t="n">
+        <v>6159.85009765625</v>
+      </c>
+      <c r="D1128" t="n">
+        <v>5376.7001953125</v>
+      </c>
+      <c r="E1128" t="n">
+        <v>6142.25</v>
+      </c>
+      <c r="F1128" t="inlineStr"/>
+      <c r="G1128" t="n">
+        <v>5533085</v>
+      </c>
+      <c r="H1128" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1128" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1128" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1128" t="inlineStr"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>6140</v>
+      </c>
+      <c r="C1129" t="n">
+        <v>6275.85009765625</v>
+      </c>
+      <c r="D1129" t="n">
+        <v>6004.64990234375</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>6022.25</v>
+      </c>
+      <c r="F1129" t="inlineStr"/>
+      <c r="G1129" t="n">
+        <v>3119136</v>
+      </c>
+      <c r="H1129" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1129" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1129" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1129" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1129" t="inlineStr"/>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1130" t="n">
+        <v>6029.9501953125</v>
+      </c>
+      <c r="C1130" t="n">
+        <v>6108.39990234375</v>
+      </c>
+      <c r="D1130" t="n">
+        <v>5692.25</v>
+      </c>
+      <c r="E1130" t="n">
+        <v>5780.75</v>
+      </c>
+      <c r="F1130" t="inlineStr"/>
+      <c r="G1130" t="n">
+        <v>3032621</v>
+      </c>
+      <c r="H1130" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1130" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1130" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1130" t="inlineStr"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1131" t="n">
+        <v>5764.89990234375</v>
+      </c>
+      <c r="C1131" t="n">
+        <v>5940</v>
+      </c>
+      <c r="D1131" t="n">
+        <v>5707.7998046875</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>5903.5498046875</v>
+      </c>
+      <c r="F1131" t="inlineStr"/>
+      <c r="G1131" t="n">
+        <v>1624644</v>
+      </c>
+      <c r="H1131" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1131" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1131" t="inlineStr"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1132" t="n">
+        <v>5904.25</v>
+      </c>
+      <c r="C1132" t="n">
+        <v>6062</v>
+      </c>
+      <c r="D1132" t="n">
+        <v>5678.35009765625</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>5949.85009765625</v>
+      </c>
+      <c r="F1132" t="inlineStr"/>
+      <c r="G1132" t="n">
+        <v>2611795</v>
+      </c>
+      <c r="H1132" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1132" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1132" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1132" t="inlineStr"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1133" t="n">
+        <v>6155</v>
+      </c>
+      <c r="C1133" t="n">
+        <v>6155</v>
+      </c>
+      <c r="D1133" t="n">
+        <v>5710.5498046875</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>5750.10009765625</v>
+      </c>
+      <c r="F1133" t="inlineStr"/>
+      <c r="G1133" t="n">
+        <v>2243220</v>
+      </c>
+      <c r="H1133" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1133" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1133" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1133" t="inlineStr"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1134" t="n">
+        <v>5700</v>
+      </c>
+      <c r="C1134" t="n">
+        <v>6056.9501953125</v>
+      </c>
+      <c r="D1134" t="n">
+        <v>5690.5</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>5998.35009765625</v>
+      </c>
+      <c r="F1134" t="inlineStr"/>
+      <c r="G1134" t="n">
+        <v>1576375</v>
+      </c>
+      <c r="H1134" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1134" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1134" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1134" t="inlineStr"/>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1135" t="n">
+        <v>6029.9501953125</v>
+      </c>
+      <c r="C1135" t="n">
+        <v>6208.2998046875</v>
+      </c>
+      <c r="D1135" t="n">
+        <v>5902.10009765625</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>6172.7001953125</v>
+      </c>
+      <c r="F1135" t="inlineStr"/>
+      <c r="G1135" t="n">
+        <v>2552549</v>
+      </c>
+      <c r="H1135" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1135" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1135" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1135" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1135" t="inlineStr"/>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1136" t="n">
+        <v>6185</v>
+      </c>
+      <c r="C1136" t="n">
+        <v>6285.4501953125</v>
+      </c>
+      <c r="D1136" t="n">
+        <v>5866.10009765625</v>
+      </c>
+      <c r="E1136" t="n">
+        <v>6130.75</v>
+      </c>
+      <c r="F1136" t="inlineStr"/>
+      <c r="G1136" t="n">
+        <v>4096069</v>
+      </c>
+      <c r="H1136" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1136" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1136" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1136" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1136" t="inlineStr"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>5999.9501953125</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>6055</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>5844.2001953125</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>5876.7001953125</v>
+      </c>
+      <c r="F1137" t="inlineStr"/>
+      <c r="G1137" t="n">
+        <v>2676226</v>
+      </c>
+      <c r="H1137" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1137" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1137" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1137" t="inlineStr"/>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>5883.5</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>5957.25</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>5780</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>5846.75</v>
+      </c>
+      <c r="F1138" t="inlineStr"/>
+      <c r="G1138" t="n">
+        <v>1931299</v>
+      </c>
+      <c r="H1138" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1138" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1138" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1138" t="inlineStr"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>5846.75</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>5935</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>5716.5</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>5881.0498046875</v>
+      </c>
+      <c r="F1139" t="inlineStr"/>
+      <c r="G1139" t="n">
+        <v>1086865</v>
+      </c>
+      <c r="H1139" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1139" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1139" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1139" t="inlineStr"/>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>5881.0498046875</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>6248.89990234375</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>5880</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>6048.2998046875</v>
+      </c>
+      <c r="F1140" t="inlineStr"/>
+      <c r="G1140" t="n">
+        <v>3263832</v>
+      </c>
+      <c r="H1140" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1140" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1140" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1140" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1140" t="inlineStr"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1141" t="n">
+        <v>6068.2001953125</v>
+      </c>
+      <c r="C1141" t="n">
+        <v>6068.2001953125</v>
+      </c>
+      <c r="D1141" t="n">
+        <v>5715.2001953125</v>
+      </c>
+      <c r="E1141" t="n">
+        <v>5771.35009765625</v>
+      </c>
+      <c r="F1141" t="inlineStr"/>
+      <c r="G1141" t="n">
+        <v>1334504</v>
+      </c>
+      <c r="H1141" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1141" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1141" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1141" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1141" t="inlineStr"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1142" t="n">
+        <v>5824</v>
+      </c>
+      <c r="C1142" t="n">
+        <v>6006.4501953125</v>
+      </c>
+      <c r="D1142" t="n">
+        <v>5654.35009765625</v>
+      </c>
+      <c r="E1142" t="n">
+        <v>5916.0498046875</v>
+      </c>
+      <c r="F1142" t="inlineStr"/>
+      <c r="G1142" t="n">
+        <v>2299275</v>
+      </c>
+      <c r="H1142" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1142" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1142" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1142" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1142" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1142" t="inlineStr"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1143" t="n">
+        <v>5917</v>
+      </c>
+      <c r="C1143" t="n">
+        <v>6068.0498046875</v>
+      </c>
+      <c r="D1143" t="n">
+        <v>5707.2998046875</v>
+      </c>
+      <c r="E1143" t="n">
+        <v>5762.60009765625</v>
+      </c>
+      <c r="F1143" t="inlineStr"/>
+      <c r="G1143" t="n">
+        <v>2098577</v>
+      </c>
+      <c r="H1143" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1143" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1143" t="inlineStr"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1144" t="n">
+        <v>5725.5</v>
+      </c>
+      <c r="C1144" t="n">
+        <v>5791.60009765625</v>
+      </c>
+      <c r="D1144" t="n">
+        <v>5351.64990234375</v>
+      </c>
+      <c r="E1144" t="n">
+        <v>5618.5498046875</v>
+      </c>
+      <c r="F1144" t="inlineStr"/>
+      <c r="G1144" t="n">
+        <v>1845154</v>
+      </c>
+      <c r="H1144" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1144" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1144" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1144" t="inlineStr"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1145" t="n">
+        <v>5619</v>
+      </c>
+      <c r="C1145" t="n">
+        <v>6230</v>
+      </c>
+      <c r="D1145" t="n">
+        <v>5471</v>
+      </c>
+      <c r="E1145" t="n">
+        <v>6140.5498046875</v>
+      </c>
+      <c r="F1145" t="inlineStr"/>
+      <c r="G1145" t="n">
+        <v>3523376</v>
+      </c>
+      <c r="H1145" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1145" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1145" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1145" t="inlineStr"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1146" t="n">
+        <v>6142</v>
+      </c>
+      <c r="C1146" t="n">
+        <v>6179</v>
+      </c>
+      <c r="D1146" t="n">
+        <v>5766.0498046875</v>
+      </c>
+      <c r="E1146" t="n">
+        <v>5843.75</v>
+      </c>
+      <c r="F1146" t="inlineStr"/>
+      <c r="G1146" t="n">
+        <v>1982203</v>
+      </c>
+      <c r="H1146" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1146" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1146" t="inlineStr"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1147" t="n">
+        <v>5832</v>
+      </c>
+      <c r="C1147" t="n">
+        <v>5998.2998046875</v>
+      </c>
+      <c r="D1147" t="n">
+        <v>5684.14990234375</v>
+      </c>
+      <c r="E1147" t="n">
+        <v>5757.0498046875</v>
+      </c>
+      <c r="F1147" t="inlineStr"/>
+      <c r="G1147" t="n">
+        <v>2124018</v>
+      </c>
+      <c r="H1147" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1147" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1147" t="inlineStr"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1148" t="n">
+        <v>5680.39990234375</v>
+      </c>
+      <c r="C1148" t="n">
+        <v>5785</v>
+      </c>
+      <c r="D1148" t="n">
+        <v>5364.85009765625</v>
+      </c>
+      <c r="E1148" t="n">
+        <v>5480.25</v>
+      </c>
+      <c r="F1148" t="inlineStr"/>
+      <c r="G1148" t="n">
+        <v>1316706</v>
+      </c>
+      <c r="H1148" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1148" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1148" t="inlineStr"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1149" t="n">
+        <v>5480.25</v>
+      </c>
+      <c r="C1149" t="n">
+        <v>5645.9501953125</v>
+      </c>
+      <c r="D1149" t="n">
+        <v>5360.64990234375</v>
+      </c>
+      <c r="E1149" t="n">
+        <v>5578.75</v>
+      </c>
+      <c r="F1149" t="inlineStr"/>
+      <c r="G1149" t="n">
+        <v>1310735</v>
+      </c>
+      <c r="H1149" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1149" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1149" t="inlineStr"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>5578.75</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>5758.25</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>5414.25</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>5620.4501953125</v>
+      </c>
+      <c r="F1150" t="inlineStr"/>
+      <c r="G1150" t="n">
+        <v>1058084</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>5620.4501953125</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>5865.7998046875</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>5582.0498046875</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>5797.35009765625</v>
+      </c>
+      <c r="F1151" t="inlineStr"/>
+      <c r="G1151" t="n">
+        <v>1154172</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>5795.89990234375</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>5940.25</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>5727.2001953125</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>5775.4501953125</v>
+      </c>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="n">
+        <v>1568570</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
